--- a/Data/관심주_년도별.xlsx
+++ b/Data/관심주_년도별.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-12" yWindow="4740" windowWidth="23088" windowHeight="4788" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-12" yWindow="4740" windowWidth="23088" windowHeight="4788" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="상승파동비율" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,10 +22,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -142,7 +143,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -197,6 +198,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +566,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.21875" defaultRowHeight="14.4"/>
@@ -681,7 +684,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="n">
+      <c r="A2" s="20" t="n">
         <v>44951</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -745,6 +748,1026 @@
       <c r="T2" t="inlineStr">
         <is>
           <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>230240</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>에치에프알</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>34450</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23563</v>
+      </c>
+      <c r="F3" t="n">
+        <v>24544</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25689</v>
+      </c>
+      <c r="H3" t="n">
+        <v>26833</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27487</v>
+      </c>
+      <c r="J3" t="n">
+        <v>29645</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31575</v>
+      </c>
+      <c r="L3" t="n">
+        <v>33504</v>
+      </c>
+      <c r="M3" t="n">
+        <v>37003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39750</v>
+      </c>
+      <c r="O3" t="n">
+        <v>45995</v>
+      </c>
+      <c r="P3" t="n">
+        <v>50017</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>56100</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7262</v>
+      </c>
+      <c r="S3" t="n">
+        <v>23400</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>018470</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>조일알미늄</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2195</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1517</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1591</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1677</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1764</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1813</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1976</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2122</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2268</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2532</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2740</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3211</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3515</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3975</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1083</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1505</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>전방</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>42650</v>
+      </c>
+      <c r="E5" t="n">
+        <v>42620</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45140</v>
+      </c>
+      <c r="G5" t="n">
+        <v>48080</v>
+      </c>
+      <c r="H5" t="n">
+        <v>51020</v>
+      </c>
+      <c r="I5" t="n">
+        <v>52700</v>
+      </c>
+      <c r="J5" t="n">
+        <v>58244</v>
+      </c>
+      <c r="K5" t="n">
+        <v>63200</v>
+      </c>
+      <c r="L5" t="n">
+        <v>68156</v>
+      </c>
+      <c r="M5" t="n">
+        <v>77144</v>
+      </c>
+      <c r="N5" t="n">
+        <v>84200</v>
+      </c>
+      <c r="O5" t="n">
+        <v>100244</v>
+      </c>
+      <c r="P5" t="n">
+        <v>110576</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>126200</v>
+      </c>
+      <c r="R5" t="n">
+        <v>106425</v>
+      </c>
+      <c r="S5" t="n">
+        <v>42200</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2022-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>234920</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>자이글</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4935</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2350</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2591</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2872</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3154</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3315</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3845</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4320</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4794</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5654</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6330</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7865</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8854</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10350</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1817</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2310</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>234920</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>자이글</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4935</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2350</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2591</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2872</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3154</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3315</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3845</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4320</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4794</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5654</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6330</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7865</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8854</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>10350</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1817</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2310</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>064350</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>26750</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17942</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18794</v>
+      </c>
+      <c r="G8" t="n">
+        <v>19788</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20782</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21350</v>
+      </c>
+      <c r="J8" t="n">
+        <v>23224</v>
+      </c>
+      <c r="K8" t="n">
+        <v>24900</v>
+      </c>
+      <c r="L8" t="n">
+        <v>26575</v>
+      </c>
+      <c r="M8" t="n">
+        <v>29614</v>
+      </c>
+      <c r="N8" t="n">
+        <v>32000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>37424</v>
+      </c>
+      <c r="P8" t="n">
+        <v>40917</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>46200</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7989</v>
+      </c>
+      <c r="S8" t="n">
+        <v>17800</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2022-05-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>065440</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>이루온</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2670</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1976</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2077</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2195</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2313</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2381</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2603</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2802</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3361</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3645</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4288</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4703</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5330</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1088</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1960</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011560</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>세보엠이씨</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7810</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6635</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6905</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7221</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7537</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7717</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8312</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8845</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9377</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10342</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11100</v>
+      </c>
+      <c r="O10" t="n">
+        <v>12822</v>
+      </c>
+      <c r="P10" t="n">
+        <v>13932</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>15610</v>
+      </c>
+      <c r="R10" t="n">
+        <v>12820</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6590</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011560</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>세보엠이씨</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7810</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6635</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6905</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7221</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7537</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7717</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8312</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8845</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9377</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10342</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11100</v>
+      </c>
+      <c r="O11" t="n">
+        <v>12822</v>
+      </c>
+      <c r="P11" t="n">
+        <v>13932</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>15610</v>
+      </c>
+      <c r="R11" t="n">
+        <v>12820</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6590</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100840</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SNT에너지</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>19710</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14647</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15232</v>
+      </c>
+      <c r="G12" t="n">
+        <v>15915</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16597</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16987</v>
+      </c>
+      <c r="J12" t="n">
+        <v>18274</v>
+      </c>
+      <c r="K12" t="n">
+        <v>19425</v>
+      </c>
+      <c r="L12" t="n">
+        <v>20575</v>
+      </c>
+      <c r="M12" t="n">
+        <v>22662</v>
+      </c>
+      <c r="N12" t="n">
+        <v>24300</v>
+      </c>
+      <c r="O12" t="n">
+        <v>28024</v>
+      </c>
+      <c r="P12" t="n">
+        <v>30423</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>34050</v>
+      </c>
+      <c r="R12" t="n">
+        <v>31481</v>
+      </c>
+      <c r="S12" t="n">
+        <v>14550</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100840</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SNT에너지</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>19710</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14647</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15232</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15915</v>
+      </c>
+      <c r="H13" t="n">
+        <v>16597</v>
+      </c>
+      <c r="I13" t="n">
+        <v>16987</v>
+      </c>
+      <c r="J13" t="n">
+        <v>18274</v>
+      </c>
+      <c r="K13" t="n">
+        <v>19425</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20575</v>
+      </c>
+      <c r="M13" t="n">
+        <v>22662</v>
+      </c>
+      <c r="N13" t="n">
+        <v>24300</v>
+      </c>
+      <c r="O13" t="n">
+        <v>28024</v>
+      </c>
+      <c r="P13" t="n">
+        <v>30423</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>34050</v>
+      </c>
+      <c r="R13" t="n">
+        <v>31481</v>
+      </c>
+      <c r="S13" t="n">
+        <v>14550</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003570</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SNT중공업</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>9630</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6635</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6969</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7359</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7749</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7972</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8707</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9365</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10022</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11214</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12150</v>
+      </c>
+      <c r="O14" t="n">
+        <v>14277</v>
+      </c>
+      <c r="P14" t="n">
+        <v>15647</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>17720</v>
+      </c>
+      <c r="R14" t="n">
+        <v>33129</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6580</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>105740</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>디케이락</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8523</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8843</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9216</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9589</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9802</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10506</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11135</v>
+      </c>
+      <c r="L15" t="n">
+        <v>11763</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12904</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13800</v>
+      </c>
+      <c r="O15" t="n">
+        <v>15836</v>
+      </c>
+      <c r="P15" t="n">
+        <v>17147</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>19130</v>
+      </c>
+      <c r="R15" t="n">
+        <v>9374</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8470</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="21" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>019440</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>세아특수강</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>16980</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13422</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14154</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15008</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15862</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16350</v>
+      </c>
+      <c r="J16" t="n">
+        <v>17960</v>
+      </c>
+      <c r="K16" t="n">
+        <v>19400</v>
+      </c>
+      <c r="L16" t="n">
+        <v>20839</v>
+      </c>
+      <c r="M16" t="n">
+        <v>23450</v>
+      </c>
+      <c r="N16" t="n">
+        <v>25500</v>
+      </c>
+      <c r="O16" t="n">
+        <v>30160</v>
+      </c>
+      <c r="P16" t="n">
+        <v>33161</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>37700</v>
+      </c>
+      <c r="R16" t="n">
+        <v>28607</v>
+      </c>
+      <c r="S16" t="n">
+        <v>13300</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>019440</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>세아특수강</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>16990</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13422</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14154</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15008</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15862</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16350</v>
+      </c>
+      <c r="J17" t="n">
+        <v>17960</v>
+      </c>
+      <c r="K17" t="n">
+        <v>19400</v>
+      </c>
+      <c r="L17" t="n">
+        <v>20839</v>
+      </c>
+      <c r="M17" t="n">
+        <v>23450</v>
+      </c>
+      <c r="N17" t="n">
+        <v>25500</v>
+      </c>
+      <c r="O17" t="n">
+        <v>30160</v>
+      </c>
+      <c r="P17" t="n">
+        <v>33161</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>37700</v>
+      </c>
+      <c r="R17" t="n">
+        <v>28607</v>
+      </c>
+      <c r="S17" t="n">
+        <v>13300</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
         </is>
       </c>
     </row>
@@ -761,10 +1784,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -879,7 +1902,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="n">
+      <c r="A2" s="20" t="n">
         <v>44951</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -944,6 +1967,936 @@
       </c>
       <c r="R2" t="n">
         <v>98.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>230240</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>에치에프알</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>34450</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23400</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>39750</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>40250</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22400</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33297</v>
+      </c>
+      <c r="L3" t="n">
+        <v>103.46</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>34883</v>
+      </c>
+      <c r="P3" t="n">
+        <v>98.76000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>018470</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>조일알미늄</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2195</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1505</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2740</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2022-12-13</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2990</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1485</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2281</v>
+      </c>
+      <c r="L4" t="n">
+        <v>96.19</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>2177</v>
+      </c>
+      <c r="P4" t="n">
+        <v>100.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>전방</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>42650</v>
+      </c>
+      <c r="E5" t="n">
+        <v>42200</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2022-04-05</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>84200</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>86900</v>
+      </c>
+      <c r="J5" t="n">
+        <v>36550</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57406</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>겨울</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>42433</v>
+      </c>
+      <c r="P5" t="n">
+        <v>100.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>234920</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>자이글</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4935</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2310</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6330</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2022-12-22</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>7700</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2225</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4347</v>
+      </c>
+      <c r="L6" t="n">
+        <v>113.52</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>4765</v>
+      </c>
+      <c r="P6" t="n">
+        <v>103.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>234920</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>자이글</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4935</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2310</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6330</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2022-12-22</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>7700</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2225</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4347</v>
+      </c>
+      <c r="L7" t="n">
+        <v>113.52</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>4765</v>
+      </c>
+      <c r="P7" t="n">
+        <v>103.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>064350</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>26750</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17800</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2022-05-12</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>32000</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>32850</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17650</v>
+      </c>
+      <c r="K8" t="n">
+        <v>27048</v>
+      </c>
+      <c r="L8" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>25317</v>
+      </c>
+      <c r="P8" t="n">
+        <v>105.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>065440</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>이루온</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2670</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1960</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3645</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>3900</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1940</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2786</v>
+      </c>
+      <c r="L9" t="n">
+        <v>95.83</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>2525</v>
+      </c>
+      <c r="P9" t="n">
+        <v>105.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011560</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>세보엠이씨</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7810</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6590</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>11100</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>11750</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7922</v>
+      </c>
+      <c r="L10" t="n">
+        <v>98.58</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P10" t="n">
+        <v>104.13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011560</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>세보엠이씨</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7810</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6590</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>11100</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>11750</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7922</v>
+      </c>
+      <c r="L11" t="n">
+        <v>98.58</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P11" t="n">
+        <v>104.13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100840</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SNT에너지</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>19710</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14550</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>24300</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>27000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>19814</v>
+      </c>
+      <c r="L12" t="n">
+        <v>99.47</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>18970</v>
+      </c>
+      <c r="P12" t="n">
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100840</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SNT에너지</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>19710</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14550</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>24300</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>27000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>19814</v>
+      </c>
+      <c r="L13" t="n">
+        <v>99.47</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>18970</v>
+      </c>
+      <c r="P13" t="n">
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003570</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SNT중공업</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>9630</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6580</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>12150</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>12800</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6450</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9401</v>
+      </c>
+      <c r="L14" t="n">
+        <v>102.43</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>9310</v>
+      </c>
+      <c r="P14" t="n">
+        <v>103.44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>105740</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>디케이락</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8470</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>13800</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2022-11-25</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>14250</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11417</v>
+      </c>
+      <c r="L15" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>11233</v>
+      </c>
+      <c r="P15" t="n">
+        <v>103.26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="21" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>019440</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>세아특수강</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>16980</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13300</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>25500</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>27600</v>
+      </c>
+      <c r="J16" t="n">
+        <v>13100</v>
+      </c>
+      <c r="K16" t="n">
+        <v>18878</v>
+      </c>
+      <c r="L16" t="n">
+        <v>89.94</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>겨울</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>16627</v>
+      </c>
+      <c r="P16" t="n">
+        <v>102.13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>019440</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>세아특수강</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>16990</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13300</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>25500</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>27600</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13100</v>
+      </c>
+      <c r="K17" t="n">
+        <v>18878</v>
+      </c>
+      <c r="L17" t="n">
+        <v>90</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>16630</v>
+      </c>
+      <c r="P17" t="n">
+        <v>102.16</v>
       </c>
     </row>
   </sheetData>
@@ -960,10 +2913,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -997,7 +2950,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="n">
+      <c r="A2" s="20" t="n">
         <v>44951</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1014,6 +2967,350 @@
         <is>
           <t>년봉기준 3년이평 아래/5년이평 위에 위치하고 있음.
 일봉에서 10이평이나 20이평 돌파 하면 분봉을 사용하여 진입한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>230240</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>에치에프알</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>년봉3선에 정확히 지지하고 있음
+매출/이익 계속 증가중
+유동/당좌/부채비율 매우 좋음
+5G/통신장비 테마 부각가능성 있음</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>018470</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>조일알미늄</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>년봉3년이평 아래에 위치/일봉의 5선10선돌파/일봉단기이평 밀집
+매출/이익 많이 증가함
+유동/당좌/부채비율 보통
+비철금속 테마</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>전방</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">연봉3이평에 위치/일봉에서 5.10.20선 모두 밀집되어 돌파가능 있음
+매출증가/이익적자
+유동/당좌/부채비율 보통
+재료 확인 필요
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>234920</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>자이글</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">연봉3년 지지후 반등중/일봉5.10선돌파, 20선돌파확인
+매출 증가/이익적자
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>234920</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>자이글</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>연봉3년 지지후 반등중/일봉5.10선돌파, 20선돌파확인
+매출 증가/이익적자
+자이글 그릴류의 판매 부진이 지속될 것으로 예상되나 공기정화기, 펫 산소마스크 등 헬스케어 제품의 신제품 출시로 사업다각화하며 외형 성장 전망.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>064350</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>연봉3이평 지지후 반등중/일봉 20이평 1차 돌파후 2차돌파 직전
+매출/이익 증가중
+유동/당좌 보통, 부채비율 높음
+항공우주/철도/방위산업/GTX테마 있음</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>065440</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>이루온</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>연봉3이평 지지후 반등중/일봉 20이평 돌파 3일째
+매출/이익 성장중
+유동/당좌/부채비율 매우좋음
+삼성페이/5G/애플페이등 여러테마 가지고 있음</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011560</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>세보엠이씨</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">연봉3선  지지후 반등중(미약)/일봉 장단기이평 모두 밀집=&gt; 조만간 반등가능(매집봉 12월초에 있음)
+매출  큰폭증가중/이익 증가중
+유동/당좌비율 매우좋음, 부채비율  좋음
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011560</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>세보엠이씨</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>연봉3선  지지후 반등중(미약)/일봉 장단기이평 모두 밀집=&gt; 조만간 반등가능(매집봉 12월초에 있음)
+매출  큰폭증가중/이익 증가중
+유동/당좌비율 매우좋음, 부채비율  좋음
+전방 반도체산업의 설비투자 둔화로 하이테크 부문의 수주는 제한적일 것으로 예상되나, 삼성물산의 배관공사 수주 등 일반설비 부문의 수주 증가로 매출 성장 전망.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100840</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SNT에너지</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>년봉3선지지후 약간반등중/일봉 단기이평밀집,120선 바로위/차트상 진입시점
+매출하락/이익증가
+유동/당좌/부채비율 좋음
+세일/원자력/네옴테마</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100840</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SNT에너지</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>년봉3선지지후 약간반등중/일봉 단기이평밀집,120선 바로위/차트상 진입시점
+매출하락/이익증가
+유동/당좌/부채비율 좋음
+세일/원자력/네옴테마/석유화학, 석유정제 및 가스 플랜트에 사용되는 공랭식 열교환기와 복합화력발전소용 배열회수보일러, 원자력 및 화력발전소용 복수기, 탈진설비 등을 주로 생산함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003570</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SNT중공업</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>연봉3선 지지후 약간 반등/일봉 단기이평 모두 밀집후 횡보중=&gt;곧 상승할수 있음
+매출/이익  계속증가
+유동/당좌/부채비율 매우 좋음
+방위산업 테마/1,500마력 자동변속기, 120mm 자주박격포, 항공 파워트레인 등 신성장동력과 관련한 개발을 위하여 핵심기술인력 및 투자를 확충하고 있음.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="20" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>105740</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>디케이락</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>년봉3선 살짝 돌파/일봉 장단기이평 밀집되어 정배열되고 있음
+매출/이익증가
+유동/당좌/부채비율 매우 좋음
+수소차/원자력발전/가스관 밸브생산/조선, 정유시설 등 대형 플랜트에 주로 사용되며, DOW, Gazprom, 현대중공업, 두산엔진 등 300여 개 거래처에 제품을 공급 중임.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="21" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>019440</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>세아특수강</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>연봉3선돌파후 1개월째 횡보중/일봉  단기이평 밀집,20일선 돌파 직전
+매출 /이익 계속 증가
+유동/당좌/부채비율 약간 나쁨
+네옴/니켈 테마/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>019440</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>세아특수강</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>연봉3선돌파후 1개월째 횡보중/일봉  단기이평 밀집,20일선 돌파 직전
+매출 /이익 계속 증가
+유동/당좌/부채비율 약간 나쁨
+네옴/니켈 테마/글로벌 경기둔화, 조선산업의 건조량 부진이 예상되나, 자동차 산업의 생산 증가, 국내 건설투자의 회복세 등으로 선재, 특수강봉강 수요 증가하며 매출 성장 전망.</t>
         </is>
       </c>
     </row>

--- a/Data/관심주_년도별.xlsx
+++ b/Data/관심주_년도별.xlsx
@@ -1963,10 +1963,10 @@
         <v>98.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>11650</v>
+        <v>11760</v>
       </c>
       <c r="R2" t="n">
-        <v>98.28</v>
+        <v>100.17</v>
       </c>
     </row>
     <row r="3">
@@ -2030,6 +2030,12 @@
       <c r="P3" t="n">
         <v>98.76000000000001</v>
       </c>
+      <c r="Q3" t="n">
+        <v>34883</v>
+      </c>
+      <c r="R3" t="n">
+        <v>98.76000000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="n">
@@ -2092,6 +2098,12 @@
       <c r="P4" t="n">
         <v>100.84</v>
       </c>
+      <c r="Q4" t="n">
+        <v>2176</v>
+      </c>
+      <c r="R4" t="n">
+        <v>100.84</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="n">
@@ -2154,6 +2166,12 @@
       <c r="P5" t="n">
         <v>100.51</v>
       </c>
+      <c r="Q5" t="n">
+        <v>42450</v>
+      </c>
+      <c r="R5" t="n">
+        <v>100.59</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="n">
@@ -2216,6 +2234,12 @@
       <c r="P6" t="n">
         <v>103.57</v>
       </c>
+      <c r="Q6" t="n">
+        <v>4761</v>
+      </c>
+      <c r="R6" t="n">
+        <v>103.43</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="n">
@@ -2278,6 +2302,12 @@
       <c r="P7" t="n">
         <v>103.57</v>
       </c>
+      <c r="Q7" t="n">
+        <v>4761</v>
+      </c>
+      <c r="R7" t="n">
+        <v>103.43</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="n">
@@ -2340,6 +2370,12 @@
       <c r="P8" t="n">
         <v>105.66</v>
       </c>
+      <c r="Q8" t="n">
+        <v>25383</v>
+      </c>
+      <c r="R8" t="n">
+        <v>106.17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="20" t="n">
@@ -2402,6 +2438,12 @@
       <c r="P9" t="n">
         <v>105.74</v>
       </c>
+      <c r="Q9" t="n">
+        <v>2518</v>
+      </c>
+      <c r="R9" t="n">
+        <v>105.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="20" t="n">
@@ -2464,6 +2506,12 @@
       <c r="P10" t="n">
         <v>104.13</v>
       </c>
+      <c r="Q10" t="n">
+        <v>7513</v>
+      </c>
+      <c r="R10" t="n">
+        <v>104.48</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="20" t="n">
@@ -2526,6 +2574,12 @@
       <c r="P11" t="n">
         <v>104.13</v>
       </c>
+      <c r="Q11" t="n">
+        <v>7513</v>
+      </c>
+      <c r="R11" t="n">
+        <v>104.48</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="n">
@@ -2588,6 +2642,12 @@
       <c r="P12" t="n">
         <v>103.9</v>
       </c>
+      <c r="Q12" t="n">
+        <v>18966</v>
+      </c>
+      <c r="R12" t="n">
+        <v>103.87</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="20" t="n">
@@ -2650,6 +2710,12 @@
       <c r="P13" t="n">
         <v>103.9</v>
       </c>
+      <c r="Q13" t="n">
+        <v>18966</v>
+      </c>
+      <c r="R13" t="n">
+        <v>103.87</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="20" t="n">
@@ -2712,6 +2778,12 @@
       <c r="P14" t="n">
         <v>103.44</v>
       </c>
+      <c r="Q14" t="n">
+        <v>9306</v>
+      </c>
+      <c r="R14" t="n">
+        <v>103.37</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="20" t="n">
@@ -2774,6 +2846,12 @@
       <c r="P15" t="n">
         <v>103.26</v>
       </c>
+      <c r="Q15" t="n">
+        <v>11243</v>
+      </c>
+      <c r="R15" t="n">
+        <v>103.44</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="n">
@@ -2836,6 +2914,12 @@
       <c r="P16" t="n">
         <v>102.13</v>
       </c>
+      <c r="Q16" t="n">
+        <v>16630</v>
+      </c>
+      <c r="R16" t="n">
+        <v>102.16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="n">
@@ -2896,6 +2980,12 @@
         <v>16630</v>
       </c>
       <c r="P17" t="n">
+        <v>102.16</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>16630</v>
+      </c>
+      <c r="R17" t="n">
         <v>102.16</v>
       </c>
     </row>

--- a/Data/관심주_년도별.xlsx
+++ b/Data/관심주_년도별.xlsx
@@ -1963,10 +1963,10 @@
         <v>98.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>11760</v>
+        <v>12103</v>
       </c>
       <c r="R2" t="n">
-        <v>100.17</v>
+        <v>105.84</v>
       </c>
     </row>
     <row r="3">
@@ -2031,10 +2031,10 @@
         <v>98.76000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>34883</v>
+        <v>34866</v>
       </c>
       <c r="R3" t="n">
-        <v>98.76000000000001</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="4">
@@ -2099,10 +2099,10 @@
         <v>100.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2176</v>
+        <v>2168</v>
       </c>
       <c r="R4" t="n">
-        <v>100.84</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="5">
@@ -2167,10 +2167,10 @@
         <v>100.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>42450</v>
+        <v>42700</v>
       </c>
       <c r="R5" t="n">
-        <v>100.59</v>
+        <v>101.76</v>
       </c>
     </row>
     <row r="6">
@@ -2235,10 +2235,10 @@
         <v>103.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>4761</v>
+        <v>4721</v>
       </c>
       <c r="R6" t="n">
-        <v>103.43</v>
+        <v>101.76</v>
       </c>
     </row>
     <row r="7">
@@ -2303,10 +2303,10 @@
         <v>103.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>4761</v>
+        <v>4721</v>
       </c>
       <c r="R7" t="n">
-        <v>103.43</v>
+        <v>101.76</v>
       </c>
     </row>
     <row r="8">
@@ -2371,10 +2371,10 @@
         <v>105.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>25383</v>
+        <v>26000</v>
       </c>
       <c r="R8" t="n">
-        <v>106.17</v>
+        <v>110.77</v>
       </c>
     </row>
     <row r="9">
@@ -2439,10 +2439,10 @@
         <v>105.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2518</v>
+        <v>2538</v>
       </c>
       <c r="R9" t="n">
-        <v>105.23</v>
+        <v>106.76</v>
       </c>
     </row>
     <row r="10">
@@ -2507,10 +2507,10 @@
         <v>104.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>7513</v>
+        <v>7536</v>
       </c>
       <c r="R10" t="n">
-        <v>104.48</v>
+        <v>105.09</v>
       </c>
     </row>
     <row r="11">
@@ -2575,10 +2575,10 @@
         <v>104.13</v>
       </c>
       <c r="Q11" t="n">
-        <v>7513</v>
+        <v>7536</v>
       </c>
       <c r="R11" t="n">
-        <v>104.48</v>
+        <v>105.09</v>
       </c>
     </row>
     <row r="12">
@@ -2779,10 +2779,10 @@
         <v>103.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>9306</v>
+        <v>9373</v>
       </c>
       <c r="R14" t="n">
-        <v>103.37</v>
+        <v>104.77</v>
       </c>
     </row>
     <row r="15">
@@ -2847,10 +2847,10 @@
         <v>103.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>11243</v>
+        <v>11300</v>
       </c>
       <c r="R15" t="n">
-        <v>103.44</v>
+        <v>104.42</v>
       </c>
     </row>
     <row r="16">
@@ -2915,10 +2915,10 @@
         <v>102.13</v>
       </c>
       <c r="Q16" t="n">
-        <v>16630</v>
+        <v>16700</v>
       </c>
       <c r="R16" t="n">
-        <v>102.16</v>
+        <v>102.99</v>
       </c>
     </row>
     <row r="17">
@@ -2983,10 +2983,10 @@
         <v>102.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>16630</v>
+        <v>16700</v>
       </c>
       <c r="R17" t="n">
-        <v>102.16</v>
+        <v>102.99</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_년도별.xlsx
+++ b/Data/관심주_년도별.xlsx
@@ -22,10 +22,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -142,7 +143,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -198,6 +199,7 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T18" sqref="T18"/>
@@ -1769,6 +1771,482 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>058450</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>일야</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1291</v>
+      </c>
+      <c r="E18" t="n">
+        <v>565</v>
+      </c>
+      <c r="F18" t="n">
+        <v>643</v>
+      </c>
+      <c r="G18" t="n">
+        <v>735</v>
+      </c>
+      <c r="H18" t="n">
+        <v>827</v>
+      </c>
+      <c r="I18" t="n">
+        <v>880</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1053</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1208</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1363</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1644</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1865</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2366</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2689</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3178</v>
+      </c>
+      <c r="R18" t="n">
+        <v>308</v>
+      </c>
+      <c r="S18" t="n">
+        <v>552</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>018470</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>조일알미늄</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2155</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1517</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1591</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1677</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1764</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1813</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1976</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2122</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2268</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2532</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2740</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3211</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3515</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3975</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1083</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1505</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000950</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>전방</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>42750</v>
+      </c>
+      <c r="E20" t="n">
+        <v>43115</v>
+      </c>
+      <c r="F20" t="n">
+        <v>45605</v>
+      </c>
+      <c r="G20" t="n">
+        <v>48510</v>
+      </c>
+      <c r="H20" t="n">
+        <v>51415</v>
+      </c>
+      <c r="I20" t="n">
+        <v>53075</v>
+      </c>
+      <c r="J20" t="n">
+        <v>58553</v>
+      </c>
+      <c r="K20" t="n">
+        <v>63450</v>
+      </c>
+      <c r="L20" t="n">
+        <v>68347</v>
+      </c>
+      <c r="M20" t="n">
+        <v>77228</v>
+      </c>
+      <c r="N20" t="n">
+        <v>84200</v>
+      </c>
+      <c r="O20" t="n">
+        <v>100053</v>
+      </c>
+      <c r="P20" t="n">
+        <v>110262</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>125700</v>
+      </c>
+      <c r="R20" t="n">
+        <v>106425</v>
+      </c>
+      <c r="S20" t="n">
+        <v>42700</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2023-01-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>200670</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>휴메딕스</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>27300</v>
+      </c>
+      <c r="E21" t="n">
+        <v>18457</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19102</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19855</v>
+      </c>
+      <c r="H21" t="n">
+        <v>20607</v>
+      </c>
+      <c r="I21" t="n">
+        <v>21037</v>
+      </c>
+      <c r="J21" t="n">
+        <v>22456</v>
+      </c>
+      <c r="K21" t="n">
+        <v>23725</v>
+      </c>
+      <c r="L21" t="n">
+        <v>24993</v>
+      </c>
+      <c r="M21" t="n">
+        <v>27294</v>
+      </c>
+      <c r="N21" t="n">
+        <v>29100</v>
+      </c>
+      <c r="O21" t="n">
+        <v>33206</v>
+      </c>
+      <c r="P21" t="n">
+        <v>35851</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>39850</v>
+      </c>
+      <c r="R21" t="n">
+        <v>13621</v>
+      </c>
+      <c r="S21" t="n">
+        <v>18350</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2022-05-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>082740</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>HSD엔진</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>7550</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6230</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6410</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6620</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6830</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6950</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7346</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7700</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8054</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8696</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9200</v>
+      </c>
+      <c r="O22" t="n">
+        <v>10346</v>
+      </c>
+      <c r="P22" t="n">
+        <v>11084</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>12200</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2062</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6200</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>042670</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>현대두산인프라코어</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>7750</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4668</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4966</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5264</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5435</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5997</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7002</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7914</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8630</v>
+      </c>
+      <c r="O23" t="n">
+        <v>10257</v>
+      </c>
+      <c r="P23" t="n">
+        <v>11305</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>12890</v>
+      </c>
+      <c r="R23" t="n">
+        <v>19818</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4370</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>051500</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CJ프레시웨이</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>32450</v>
+      </c>
+      <c r="E24" t="n">
+        <v>29286</v>
+      </c>
+      <c r="F24" t="n">
+        <v>30105</v>
+      </c>
+      <c r="G24" t="n">
+        <v>31061</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32016</v>
+      </c>
+      <c r="I24" t="n">
+        <v>32562</v>
+      </c>
+      <c r="J24" t="n">
+        <v>34364</v>
+      </c>
+      <c r="K24" t="n">
+        <v>35975</v>
+      </c>
+      <c r="L24" t="n">
+        <v>37585</v>
+      </c>
+      <c r="M24" t="n">
+        <v>40506</v>
+      </c>
+      <c r="N24" t="n">
+        <v>42800</v>
+      </c>
+      <c r="O24" t="n">
+        <v>48014</v>
+      </c>
+      <c r="P24" t="n">
+        <v>51372</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>56450</v>
+      </c>
+      <c r="R24" t="n">
+        <v>16331</v>
+      </c>
+      <c r="S24" t="n">
+        <v>29150</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:T1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1782,7 +2260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
@@ -1961,10 +2439,10 @@
         <v>98.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>12193</v>
+        <v>12156</v>
       </c>
       <c r="R2" t="n">
-        <v>107.27</v>
+        <v>106.69</v>
       </c>
     </row>
     <row r="3">
@@ -2029,10 +2507,10 @@
         <v>98.76000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>34983</v>
+        <v>34900</v>
       </c>
       <c r="R3" t="n">
-        <v>99.33</v>
+        <v>98.84999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -2097,10 +2575,10 @@
         <v>100.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="R4" t="n">
-        <v>99.77</v>
+        <v>99.61</v>
       </c>
     </row>
     <row r="5">
@@ -2165,10 +2643,10 @@
         <v>100.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>42583</v>
+        <v>42466</v>
       </c>
       <c r="R5" t="n">
-        <v>101.21</v>
+        <v>100.67</v>
       </c>
     </row>
     <row r="6">
@@ -2233,10 +2711,10 @@
         <v>103.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>4690</v>
+        <v>4676</v>
       </c>
       <c r="R6" t="n">
-        <v>100.43</v>
+        <v>99.86</v>
       </c>
     </row>
     <row r="7">
@@ -2301,10 +2779,10 @@
         <v>103.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>4690</v>
+        <v>4676</v>
       </c>
       <c r="R7" t="n">
-        <v>100.43</v>
+        <v>99.86</v>
       </c>
     </row>
     <row r="8">
@@ -2369,10 +2847,10 @@
         <v>105.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="R8" t="n">
-        <v>106.3</v>
+        <v>107.81</v>
       </c>
     </row>
     <row r="9">
@@ -2437,10 +2915,10 @@
         <v>105.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="R9" t="n">
-        <v>107.4</v>
+        <v>107.14</v>
       </c>
     </row>
     <row r="10">
@@ -2641,10 +3119,10 @@
         <v>103.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>19116</v>
+        <v>19400</v>
       </c>
       <c r="R12" t="n">
-        <v>105.41</v>
+        <v>108.25</v>
       </c>
     </row>
     <row r="13">
@@ -2709,10 +3187,10 @@
         <v>103.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>19116</v>
+        <v>19400</v>
       </c>
       <c r="R13" t="n">
-        <v>105.41</v>
+        <v>108.25</v>
       </c>
     </row>
     <row r="14">
@@ -2845,10 +3323,10 @@
         <v>103.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>11230</v>
+        <v>11393</v>
       </c>
       <c r="R15" t="n">
-        <v>103.21</v>
+        <v>106.03</v>
       </c>
     </row>
     <row r="16">
@@ -2913,10 +3391,10 @@
         <v>102.13</v>
       </c>
       <c r="Q16" t="n">
-        <v>16593</v>
+        <v>16633</v>
       </c>
       <c r="R16" t="n">
-        <v>101.73</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="17">
@@ -2981,10 +3459,444 @@
         <v>102.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>16593</v>
+        <v>16633</v>
       </c>
       <c r="R17" t="n">
-        <v>101.73</v>
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>058450</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>일야</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1291</v>
+      </c>
+      <c r="E18" t="n">
+        <v>552</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1865</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2022-12-12</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1935</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1129</v>
+      </c>
+      <c r="L18" t="n">
+        <v>114.26</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>1244</v>
+      </c>
+      <c r="P18" t="n">
+        <v>103.81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>018470</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>조일알미늄</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2155</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1505</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2740</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2022-12-13</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>2835</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1485</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2281</v>
+      </c>
+      <c r="L19" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>2163</v>
+      </c>
+      <c r="P19" t="n">
+        <v>99.61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000950</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>전방</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>42750</v>
+      </c>
+      <c r="E20" t="n">
+        <v>42700</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2023-01-05</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>84200</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>86900</v>
+      </c>
+      <c r="J20" t="n">
+        <v>36550</v>
+      </c>
+      <c r="K20" t="n">
+        <v>57045</v>
+      </c>
+      <c r="L20" t="n">
+        <v>74.94</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>겨울3</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>겨울</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>42467</v>
+      </c>
+      <c r="P20" t="n">
+        <v>100.67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>200670</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>휴메딕스</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>27300</v>
+      </c>
+      <c r="E21" t="n">
+        <v>18350</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2022-05-12</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>29100</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>29550</v>
+      </c>
+      <c r="J21" t="n">
+        <v>17850</v>
+      </c>
+      <c r="K21" t="n">
+        <v>23232</v>
+      </c>
+      <c r="L21" t="n">
+        <v>117.51</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>26317</v>
+      </c>
+      <c r="P21" t="n">
+        <v>103.74</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>082740</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>HSD엔진</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>7550</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>9200</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>9470</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6110</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7510</v>
+      </c>
+      <c r="L22" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>7171</v>
+      </c>
+      <c r="P22" t="n">
+        <v>105.29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>042670</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>현대두산인프라코어</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>7750</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4370</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>8630</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2022-12-13</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>8890</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4255</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6534</v>
+      </c>
+      <c r="L23" t="n">
+        <v>118.59</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>7610</v>
+      </c>
+      <c r="P23" t="n">
+        <v>101.84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>051500</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CJ프레시웨이</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>32450</v>
+      </c>
+      <c r="E24" t="n">
+        <v>29150</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>42800</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2022-05-11</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>44700</v>
+      </c>
+      <c r="J24" t="n">
+        <v>27200</v>
+      </c>
+      <c r="K24" t="n">
+        <v>33175</v>
+      </c>
+      <c r="L24" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>31067</v>
+      </c>
+      <c r="P24" t="n">
+        <v>104.45</v>
       </c>
     </row>
   </sheetData>
@@ -3001,7 +3913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
@@ -3399,6 +4311,146 @@
 매출 /이익 계속 증가
 유동/당좌/부채비율 약간 나쁨
 네옴/니켈 테마/글로벌 경기둔화, 조선산업의 건조량 부진이 예상되나, 자동차 산업의 생산 증가, 국내 건설투자의 회복세 등으로 선재, 특수강봉강 수요 증가하며 매출 성장 전망.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>058450</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>일야</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>018470</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>조일알미늄</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000950</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>전방</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>200670</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>휴메딕스</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>082740</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>HSD엔진</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>042670</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>현대두산인프라코어</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="21" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>051500</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CJ프레시웨이</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
         </is>
       </c>
     </row>

--- a/Data/관심주_년도별.xlsx
+++ b/Data/관심주_년도별.xlsx
@@ -2369,10 +2369,10 @@
         <v>98.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>11843</v>
+        <v>11800</v>
       </c>
       <c r="R2" t="n">
-        <v>101.58</v>
+        <v>100.85</v>
       </c>
     </row>
     <row r="3">
@@ -2437,10 +2437,10 @@
         <v>98.76000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>35216</v>
+        <v>35233</v>
       </c>
       <c r="R3" t="n">
-        <v>100.66</v>
+        <v>100.76</v>
       </c>
     </row>
     <row r="4">
@@ -2505,10 +2505,10 @@
         <v>100.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2173</v>
+        <v>2200</v>
       </c>
       <c r="R4" t="n">
-        <v>100.54</v>
+        <v>102.95</v>
       </c>
     </row>
     <row r="5">
@@ -2573,10 +2573,10 @@
         <v>100.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>42316</v>
+        <v>42450</v>
       </c>
       <c r="R5" t="n">
-        <v>99.95999999999999</v>
+        <v>100.59</v>
       </c>
     </row>
     <row r="6">
@@ -2641,10 +2641,10 @@
         <v>103.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>4678</v>
+        <v>4668</v>
       </c>
       <c r="R6" t="n">
-        <v>99.93000000000001</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="7">
@@ -2709,10 +2709,10 @@
         <v>103.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>4678</v>
+        <v>4668</v>
       </c>
       <c r="R7" t="n">
-        <v>99.93000000000001</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="8">
@@ -2777,10 +2777,10 @@
         <v>105.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>25783</v>
+        <v>25816</v>
       </c>
       <c r="R8" t="n">
-        <v>109.18</v>
+        <v>109.43</v>
       </c>
     </row>
     <row r="9">
@@ -2845,10 +2845,10 @@
         <v>105.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2521</v>
+        <v>2538</v>
       </c>
       <c r="R9" t="n">
-        <v>105.49</v>
+        <v>106.76</v>
       </c>
     </row>
     <row r="10">
@@ -2913,10 +2913,10 @@
         <v>104.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>7546</v>
+        <v>7563</v>
       </c>
       <c r="R10" t="n">
-        <v>105.34</v>
+        <v>105.77</v>
       </c>
     </row>
     <row r="11">
@@ -2981,10 +2981,10 @@
         <v>104.13</v>
       </c>
       <c r="Q11" t="n">
-        <v>7546</v>
+        <v>7563</v>
       </c>
       <c r="R11" t="n">
-        <v>105.34</v>
+        <v>105.77</v>
       </c>
     </row>
     <row r="12">
@@ -3049,10 +3049,10 @@
         <v>103.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>19200</v>
+        <v>19133</v>
       </c>
       <c r="R12" t="n">
-        <v>106.25</v>
+        <v>105.57</v>
       </c>
     </row>
     <row r="13">
@@ -3117,10 +3117,10 @@
         <v>103.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>19200</v>
+        <v>19133</v>
       </c>
       <c r="R13" t="n">
-        <v>106.25</v>
+        <v>105.57</v>
       </c>
     </row>
     <row r="14">
@@ -3185,10 +3185,10 @@
         <v>103.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>9706</v>
+        <v>9640</v>
       </c>
       <c r="R14" t="n">
-        <v>111.47</v>
+        <v>110.17</v>
       </c>
     </row>
     <row r="15">
@@ -3253,10 +3253,10 @@
         <v>103.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>11370</v>
+        <v>11356</v>
       </c>
       <c r="R15" t="n">
-        <v>105.63</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="16">
@@ -3321,10 +3321,10 @@
         <v>102.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>16646</v>
+        <v>16703</v>
       </c>
       <c r="R16" t="n">
-        <v>102.36</v>
+        <v>103.03</v>
       </c>
     </row>
     <row r="17">
@@ -3389,10 +3389,10 @@
         <v>103.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="R17" t="n">
-        <v>103.86</v>
+        <v>103.01</v>
       </c>
     </row>
     <row r="18">
@@ -3457,10 +3457,10 @@
         <v>99.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2173</v>
+        <v>2200</v>
       </c>
       <c r="R18" t="n">
-        <v>100.54</v>
+        <v>102.95</v>
       </c>
     </row>
     <row r="19">
@@ -3525,10 +3525,10 @@
         <v>100.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>42316</v>
+        <v>42450</v>
       </c>
       <c r="R19" t="n">
-        <v>99.95999999999999</v>
+        <v>100.59</v>
       </c>
     </row>
     <row r="20">
@@ -3593,10 +3593,10 @@
         <v>103.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>26200</v>
+        <v>26233</v>
       </c>
       <c r="R20" t="n">
-        <v>102.86</v>
+        <v>103.11</v>
       </c>
     </row>
     <row r="21">
@@ -3661,10 +3661,10 @@
         <v>105.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>7187</v>
+        <v>7167</v>
       </c>
       <c r="R21" t="n">
-        <v>105.74</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="22">
@@ -3729,10 +3729,10 @@
         <v>101.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>7486</v>
+        <v>7496</v>
       </c>
       <c r="R22" t="n">
-        <v>98.58</v>
+        <v>98.84</v>
       </c>
     </row>
     <row r="23">
@@ -3797,10 +3797,10 @@
         <v>104.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>31016</v>
+        <v>31866</v>
       </c>
       <c r="R23" t="n">
-        <v>104.14</v>
+        <v>109.36</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_년도별.xlsx
+++ b/Data/관심주_년도별.xlsx
@@ -2369,10 +2369,10 @@
         <v>98.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>11800</v>
+        <v>11790</v>
       </c>
       <c r="R2" t="n">
-        <v>100.85</v>
+        <v>100.68</v>
       </c>
     </row>
     <row r="3">
@@ -2437,10 +2437,10 @@
         <v>98.76000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>35233</v>
+        <v>35133</v>
       </c>
       <c r="R3" t="n">
-        <v>100.76</v>
+        <v>100.19</v>
       </c>
     </row>
     <row r="4">
@@ -2505,10 +2505,10 @@
         <v>100.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2200</v>
+        <v>2181</v>
       </c>
       <c r="R4" t="n">
-        <v>102.95</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="5">
@@ -2573,10 +2573,10 @@
         <v>100.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>42450</v>
+        <v>42600</v>
       </c>
       <c r="R5" t="n">
-        <v>100.59</v>
+        <v>101.29</v>
       </c>
     </row>
     <row r="6">
@@ -2641,10 +2641,10 @@
         <v>103.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>4668</v>
+        <v>4615</v>
       </c>
       <c r="R6" t="n">
-        <v>99.5</v>
+        <v>97.18000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2709,10 +2709,10 @@
         <v>103.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>4668</v>
+        <v>4615</v>
       </c>
       <c r="R7" t="n">
-        <v>99.5</v>
+        <v>97.18000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -2777,10 +2777,10 @@
         <v>105.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>25816</v>
+        <v>25850</v>
       </c>
       <c r="R8" t="n">
-        <v>109.43</v>
+        <v>109.67</v>
       </c>
     </row>
     <row r="9">
@@ -2845,10 +2845,10 @@
         <v>105.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538</v>
+        <v>2625</v>
       </c>
       <c r="R9" t="n">
-        <v>106.76</v>
+        <v>113.14</v>
       </c>
     </row>
     <row r="10">
@@ -2913,10 +2913,10 @@
         <v>104.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>7563</v>
+        <v>7543</v>
       </c>
       <c r="R10" t="n">
-        <v>105.77</v>
+        <v>105.26</v>
       </c>
     </row>
     <row r="11">
@@ -2981,10 +2981,10 @@
         <v>104.13</v>
       </c>
       <c r="Q11" t="n">
-        <v>7563</v>
+        <v>7543</v>
       </c>
       <c r="R11" t="n">
-        <v>105.77</v>
+        <v>105.26</v>
       </c>
     </row>
     <row r="12">
@@ -3049,10 +3049,10 @@
         <v>103.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>19133</v>
+        <v>19100</v>
       </c>
       <c r="R12" t="n">
-        <v>105.57</v>
+        <v>105.24</v>
       </c>
     </row>
     <row r="13">
@@ -3117,10 +3117,10 @@
         <v>103.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>19133</v>
+        <v>19100</v>
       </c>
       <c r="R13" t="n">
-        <v>105.57</v>
+        <v>105.24</v>
       </c>
     </row>
     <row r="14">
@@ -3185,10 +3185,10 @@
         <v>103.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>9640</v>
+        <v>9753</v>
       </c>
       <c r="R14" t="n">
-        <v>110.17</v>
+        <v>112.37</v>
       </c>
     </row>
     <row r="15">
@@ -3253,10 +3253,10 @@
         <v>103.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>11356</v>
+        <v>11333</v>
       </c>
       <c r="R15" t="n">
-        <v>105.4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -3321,10 +3321,10 @@
         <v>102.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>16703</v>
+        <v>16683</v>
       </c>
       <c r="R16" t="n">
-        <v>103.03</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="17">
@@ -3389,10 +3389,10 @@
         <v>103.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="R17" t="n">
-        <v>103.01</v>
+        <v>103.12</v>
       </c>
     </row>
     <row r="18">
@@ -3457,10 +3457,10 @@
         <v>99.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2200</v>
+        <v>2181</v>
       </c>
       <c r="R18" t="n">
-        <v>102.95</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="19">
@@ -3525,10 +3525,10 @@
         <v>100.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>42450</v>
+        <v>42600</v>
       </c>
       <c r="R19" t="n">
-        <v>100.59</v>
+        <v>101.29</v>
       </c>
     </row>
     <row r="20">
@@ -3593,10 +3593,10 @@
         <v>103.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>26233</v>
+        <v>26483</v>
       </c>
       <c r="R20" t="n">
-        <v>103.11</v>
+        <v>104.97</v>
       </c>
     </row>
     <row r="21">
@@ -3661,10 +3661,10 @@
         <v>105.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>7167</v>
+        <v>7180</v>
       </c>
       <c r="R21" t="n">
-        <v>105.2</v>
+        <v>105.56</v>
       </c>
     </row>
     <row r="22">
@@ -3729,10 +3729,10 @@
         <v>101.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>7496</v>
+        <v>7506</v>
       </c>
       <c r="R22" t="n">
-        <v>98.84</v>
+        <v>99.11</v>
       </c>
     </row>
     <row r="23">
@@ -3797,10 +3797,10 @@
         <v>104.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>31866</v>
+        <v>31916</v>
       </c>
       <c r="R23" t="n">
-        <v>109.36</v>
+        <v>109.66</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_년도별.xlsx
+++ b/Data/관심주_년도별.xlsx
@@ -2369,10 +2369,10 @@
         <v>98.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>11790</v>
+        <v>11763</v>
       </c>
       <c r="R2" t="n">
-        <v>100.68</v>
+        <v>100.23</v>
       </c>
     </row>
     <row r="3">
@@ -2437,10 +2437,10 @@
         <v>98.76000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>35133</v>
+        <v>34833</v>
       </c>
       <c r="R3" t="n">
-        <v>100.19</v>
+        <v>98.47</v>
       </c>
     </row>
     <row r="4">
@@ -2505,10 +2505,10 @@
         <v>100.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2181</v>
+        <v>2190</v>
       </c>
       <c r="R4" t="n">
-        <v>101.3</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="5">
@@ -2573,10 +2573,10 @@
         <v>100.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>42600</v>
+        <v>42616</v>
       </c>
       <c r="R5" t="n">
-        <v>101.29</v>
+        <v>101.37</v>
       </c>
     </row>
     <row r="6">
@@ -2641,10 +2641,10 @@
         <v>103.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>4615</v>
+        <v>4571</v>
       </c>
       <c r="R6" t="n">
-        <v>97.18000000000001</v>
+        <v>95.26000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2709,10 +2709,10 @@
         <v>103.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>4615</v>
+        <v>4571</v>
       </c>
       <c r="R7" t="n">
-        <v>97.18000000000001</v>
+        <v>95.26000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -2777,10 +2777,10 @@
         <v>105.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>25850</v>
+        <v>25300</v>
       </c>
       <c r="R8" t="n">
-        <v>109.67</v>
+        <v>105.53</v>
       </c>
     </row>
     <row r="9">
@@ -2845,10 +2845,10 @@
         <v>105.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2625</v>
+        <v>2675</v>
       </c>
       <c r="R9" t="n">
-        <v>113.14</v>
+        <v>116.64</v>
       </c>
     </row>
     <row r="10">
@@ -2913,10 +2913,10 @@
         <v>104.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>7543</v>
+        <v>7526</v>
       </c>
       <c r="R10" t="n">
-        <v>105.26</v>
+        <v>104.83</v>
       </c>
     </row>
     <row r="11">
@@ -2981,10 +2981,10 @@
         <v>104.13</v>
       </c>
       <c r="Q11" t="n">
-        <v>7543</v>
+        <v>7526</v>
       </c>
       <c r="R11" t="n">
-        <v>105.26</v>
+        <v>104.83</v>
       </c>
     </row>
     <row r="12">
@@ -3049,10 +3049,10 @@
         <v>103.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>19100</v>
+        <v>19133</v>
       </c>
       <c r="R12" t="n">
-        <v>105.24</v>
+        <v>105.57</v>
       </c>
     </row>
     <row r="13">
@@ -3117,10 +3117,10 @@
         <v>103.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>19100</v>
+        <v>19133</v>
       </c>
       <c r="R13" t="n">
-        <v>105.24</v>
+        <v>105.57</v>
       </c>
     </row>
     <row r="14">
@@ -3185,10 +3185,10 @@
         <v>103.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>9753</v>
+        <v>9556</v>
       </c>
       <c r="R14" t="n">
-        <v>112.37</v>
+        <v>108.51</v>
       </c>
     </row>
     <row r="15">
@@ -3321,10 +3321,10 @@
         <v>102.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>16683</v>
+        <v>16633</v>
       </c>
       <c r="R16" t="n">
-        <v>102.8</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="17">
@@ -3389,10 +3389,10 @@
         <v>103.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R17" t="n">
-        <v>103.12</v>
+        <v>102.91</v>
       </c>
     </row>
     <row r="18">
@@ -3457,10 +3457,10 @@
         <v>99.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2181</v>
+        <v>2190</v>
       </c>
       <c r="R18" t="n">
-        <v>101.3</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="19">
@@ -3525,10 +3525,10 @@
         <v>100.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>42600</v>
+        <v>42616</v>
       </c>
       <c r="R19" t="n">
-        <v>101.29</v>
+        <v>101.37</v>
       </c>
     </row>
     <row r="20">
@@ -3593,10 +3593,10 @@
         <v>103.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>26483</v>
+        <v>26616</v>
       </c>
       <c r="R20" t="n">
-        <v>104.97</v>
+        <v>105.95</v>
       </c>
     </row>
     <row r="21">
@@ -3661,10 +3661,10 @@
         <v>105.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>7180</v>
+        <v>7197</v>
       </c>
       <c r="R21" t="n">
-        <v>105.56</v>
+        <v>106.01</v>
       </c>
     </row>
     <row r="22">
@@ -3729,10 +3729,10 @@
         <v>101.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>7506</v>
+        <v>7533</v>
       </c>
       <c r="R22" t="n">
-        <v>99.11</v>
+        <v>99.81999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3797,10 +3797,10 @@
         <v>104.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>31916</v>
+        <v>31933</v>
       </c>
       <c r="R23" t="n">
-        <v>109.66</v>
+        <v>109.76</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_년도별.xlsx
+++ b/Data/관심주_년도별.xlsx
@@ -2369,10 +2369,10 @@
         <v>98.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>11763</v>
+        <v>11800</v>
       </c>
       <c r="R2" t="n">
-        <v>100.23</v>
+        <v>100.85</v>
       </c>
     </row>
     <row r="3">
@@ -2437,10 +2437,10 @@
         <v>98.76000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>34833</v>
+        <v>34900</v>
       </c>
       <c r="R3" t="n">
-        <v>98.47</v>
+        <v>98.84999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -2505,10 +2505,10 @@
         <v>100.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2190</v>
+        <v>2235</v>
       </c>
       <c r="R4" t="n">
-        <v>102.05</v>
+        <v>106.04</v>
       </c>
     </row>
     <row r="5">
@@ -2573,10 +2573,10 @@
         <v>100.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>42616</v>
+        <v>42883</v>
       </c>
       <c r="R5" t="n">
-        <v>101.37</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="6">
@@ -2641,10 +2641,10 @@
         <v>103.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>4571</v>
+        <v>4630</v>
       </c>
       <c r="R6" t="n">
-        <v>95.26000000000001</v>
+        <v>97.84</v>
       </c>
     </row>
     <row r="7">
@@ -2709,10 +2709,10 @@
         <v>103.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>4571</v>
+        <v>4630</v>
       </c>
       <c r="R7" t="n">
-        <v>95.26000000000001</v>
+        <v>97.84</v>
       </c>
     </row>
     <row r="8">
@@ -2845,10 +2845,10 @@
         <v>105.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2675</v>
+        <v>2691</v>
       </c>
       <c r="R9" t="n">
-        <v>116.64</v>
+        <v>117.77</v>
       </c>
     </row>
     <row r="10">
@@ -2913,10 +2913,10 @@
         <v>104.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>7526</v>
+        <v>7506</v>
       </c>
       <c r="R10" t="n">
-        <v>104.83</v>
+        <v>104.31</v>
       </c>
     </row>
     <row r="11">
@@ -2981,10 +2981,10 @@
         <v>104.13</v>
       </c>
       <c r="Q11" t="n">
-        <v>7526</v>
+        <v>7506</v>
       </c>
       <c r="R11" t="n">
-        <v>104.83</v>
+        <v>104.31</v>
       </c>
     </row>
     <row r="12">
@@ -3049,10 +3049,10 @@
         <v>103.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>19133</v>
+        <v>19066</v>
       </c>
       <c r="R12" t="n">
-        <v>105.57</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="13">
@@ -3117,10 +3117,10 @@
         <v>103.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>19133</v>
+        <v>19066</v>
       </c>
       <c r="R13" t="n">
-        <v>105.57</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="14">
@@ -3185,10 +3185,10 @@
         <v>103.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>9556</v>
+        <v>9420</v>
       </c>
       <c r="R14" t="n">
-        <v>108.51</v>
+        <v>105.73</v>
       </c>
     </row>
     <row r="15">
@@ -3253,10 +3253,10 @@
         <v>103.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>11333</v>
+        <v>11366</v>
       </c>
       <c r="R15" t="n">
-        <v>105</v>
+        <v>105.57</v>
       </c>
     </row>
     <row r="16">
@@ -3321,10 +3321,10 @@
         <v>102.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>16633</v>
+        <v>16570</v>
       </c>
       <c r="R16" t="n">
-        <v>102.2</v>
+        <v>101.45</v>
       </c>
     </row>
     <row r="17">
@@ -3389,10 +3389,10 @@
         <v>103.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="R17" t="n">
-        <v>102.91</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="18">
@@ -3457,10 +3457,10 @@
         <v>99.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2190</v>
+        <v>2235</v>
       </c>
       <c r="R18" t="n">
-        <v>102.05</v>
+        <v>106.04</v>
       </c>
     </row>
     <row r="19">
@@ -3525,10 +3525,10 @@
         <v>100.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>42616</v>
+        <v>42883</v>
       </c>
       <c r="R19" t="n">
-        <v>101.37</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="20">
@@ -3593,10 +3593,10 @@
         <v>103.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>26616</v>
+        <v>26500</v>
       </c>
       <c r="R20" t="n">
-        <v>105.95</v>
+        <v>105.09</v>
       </c>
     </row>
     <row r="21">
@@ -3661,10 +3661,10 @@
         <v>105.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>7197</v>
+        <v>7090</v>
       </c>
       <c r="R21" t="n">
-        <v>106.01</v>
+        <v>103.09</v>
       </c>
     </row>
     <row r="22">
@@ -3729,10 +3729,10 @@
         <v>101.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>7533</v>
+        <v>7606</v>
       </c>
       <c r="R22" t="n">
-        <v>99.81999999999999</v>
+        <v>101.75</v>
       </c>
     </row>
     <row r="23">
@@ -3797,10 +3797,10 @@
         <v>104.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>31933</v>
+        <v>32416</v>
       </c>
       <c r="R23" t="n">
-        <v>109.76</v>
+        <v>112.6</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_년도별.xlsx
+++ b/Data/관심주_년도별.xlsx
@@ -2369,10 +2369,10 @@
         <v>98.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>11800</v>
+        <v>11793</v>
       </c>
       <c r="R2" t="n">
-        <v>100.85</v>
+        <v>100.73</v>
       </c>
     </row>
     <row r="3">
@@ -2437,10 +2437,10 @@
         <v>98.76000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>34900</v>
+        <v>34883</v>
       </c>
       <c r="R3" t="n">
-        <v>98.84999999999999</v>
+        <v>98.76000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -2505,10 +2505,10 @@
         <v>100.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2235</v>
+        <v>2220</v>
       </c>
       <c r="R4" t="n">
-        <v>106.04</v>
+        <v>104.73</v>
       </c>
     </row>
     <row r="5">
@@ -2573,10 +2573,10 @@
         <v>100.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>42883</v>
+        <v>42733</v>
       </c>
       <c r="R5" t="n">
-        <v>102.6</v>
+        <v>101.91</v>
       </c>
     </row>
     <row r="6">
@@ -2641,10 +2641,10 @@
         <v>103.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>4630</v>
+        <v>4740</v>
       </c>
       <c r="R6" t="n">
-        <v>97.84</v>
+        <v>102.53</v>
       </c>
     </row>
     <row r="7">
@@ -2709,10 +2709,10 @@
         <v>103.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>4630</v>
+        <v>4740</v>
       </c>
       <c r="R7" t="n">
-        <v>97.84</v>
+        <v>102.53</v>
       </c>
     </row>
     <row r="8">
@@ -2777,10 +2777,10 @@
         <v>105.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>25300</v>
+        <v>25266</v>
       </c>
       <c r="R8" t="n">
-        <v>105.53</v>
+        <v>105.28</v>
       </c>
     </row>
     <row r="9">
@@ -2845,10 +2845,10 @@
         <v>105.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2691</v>
+        <v>2635</v>
       </c>
       <c r="R9" t="n">
-        <v>117.77</v>
+        <v>113.85</v>
       </c>
     </row>
     <row r="10">
@@ -2913,10 +2913,10 @@
         <v>104.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>7506</v>
+        <v>7456</v>
       </c>
       <c r="R10" t="n">
-        <v>104.31</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -2981,10 +2981,10 @@
         <v>104.13</v>
       </c>
       <c r="Q11" t="n">
-        <v>7506</v>
+        <v>7456</v>
       </c>
       <c r="R11" t="n">
-        <v>104.31</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -3049,10 +3049,10 @@
         <v>103.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>19066</v>
+        <v>19250</v>
       </c>
       <c r="R12" t="n">
-        <v>104.9</v>
+        <v>106.75</v>
       </c>
     </row>
     <row r="13">
@@ -3117,10 +3117,10 @@
         <v>103.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>19066</v>
+        <v>19250</v>
       </c>
       <c r="R13" t="n">
-        <v>104.9</v>
+        <v>106.75</v>
       </c>
     </row>
     <row r="14">
@@ -3185,10 +3185,10 @@
         <v>103.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>9420</v>
+        <v>9370</v>
       </c>
       <c r="R14" t="n">
-        <v>105.73</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="15">
@@ -3253,10 +3253,10 @@
         <v>103.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>11366</v>
+        <v>11460</v>
       </c>
       <c r="R15" t="n">
-        <v>105.57</v>
+        <v>107.16</v>
       </c>
     </row>
     <row r="16">
@@ -3321,10 +3321,10 @@
         <v>102.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>16570</v>
+        <v>16766</v>
       </c>
       <c r="R16" t="n">
-        <v>101.45</v>
+        <v>103.78</v>
       </c>
     </row>
     <row r="17">
@@ -3389,10 +3389,10 @@
         <v>103.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>1237</v>
+        <v>1120</v>
       </c>
       <c r="R17" t="n">
-        <v>102.8</v>
+        <v>82.20999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3457,10 +3457,10 @@
         <v>99.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2235</v>
+        <v>2220</v>
       </c>
       <c r="R18" t="n">
-        <v>106.04</v>
+        <v>104.73</v>
       </c>
     </row>
     <row r="19">
@@ -3525,10 +3525,10 @@
         <v>100.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>42883</v>
+        <v>42733</v>
       </c>
       <c r="R19" t="n">
-        <v>102.6</v>
+        <v>101.91</v>
       </c>
     </row>
     <row r="20">
@@ -3593,10 +3593,10 @@
         <v>103.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>26500</v>
+        <v>25766</v>
       </c>
       <c r="R20" t="n">
-        <v>105.09</v>
+        <v>99.55</v>
       </c>
     </row>
     <row r="21">
@@ -3661,10 +3661,10 @@
         <v>105.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>7090</v>
+        <v>7527</v>
       </c>
       <c r="R21" t="n">
-        <v>103.09</v>
+        <v>114.52</v>
       </c>
     </row>
     <row r="22">
@@ -3729,10 +3729,10 @@
         <v>101.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>7606</v>
+        <v>7763</v>
       </c>
       <c r="R22" t="n">
-        <v>101.75</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="23">
@@ -3797,10 +3797,10 @@
         <v>104.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>32416</v>
+        <v>31333</v>
       </c>
       <c r="R23" t="n">
-        <v>112.6</v>
+        <v>106.12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_년도별.xlsx
+++ b/Data/관심주_년도별.xlsx
@@ -2369,10 +2369,10 @@
         <v>98.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>11793</v>
+        <v>11833</v>
       </c>
       <c r="R2" t="n">
-        <v>100.73</v>
+        <v>101.41</v>
       </c>
     </row>
     <row r="3">
@@ -2437,10 +2437,10 @@
         <v>98.76000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>34883</v>
+        <v>34850</v>
       </c>
       <c r="R3" t="n">
-        <v>98.76000000000001</v>
+        <v>98.56999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -2505,10 +2505,10 @@
         <v>100.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2220</v>
+        <v>2196</v>
       </c>
       <c r="R4" t="n">
-        <v>104.73</v>
+        <v>102.66</v>
       </c>
     </row>
     <row r="5">
@@ -2573,10 +2573,10 @@
         <v>100.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>42733</v>
+        <v>42716</v>
       </c>
       <c r="R5" t="n">
-        <v>101.91</v>
+        <v>101.83</v>
       </c>
     </row>
     <row r="6">
@@ -2641,10 +2641,10 @@
         <v>103.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>4740</v>
+        <v>4745</v>
       </c>
       <c r="R6" t="n">
-        <v>102.53</v>
+        <v>102.74</v>
       </c>
     </row>
     <row r="7">
@@ -2709,10 +2709,10 @@
         <v>103.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>4740</v>
+        <v>4745</v>
       </c>
       <c r="R7" t="n">
-        <v>102.53</v>
+        <v>102.74</v>
       </c>
     </row>
     <row r="8">
@@ -2777,10 +2777,10 @@
         <v>105.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>25266</v>
+        <v>24850</v>
       </c>
       <c r="R8" t="n">
-        <v>105.28</v>
+        <v>102.01</v>
       </c>
     </row>
     <row r="9">
@@ -2845,10 +2845,10 @@
         <v>105.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2635</v>
+        <v>2566</v>
       </c>
       <c r="R9" t="n">
-        <v>113.85</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="10">
@@ -2913,10 +2913,10 @@
         <v>104.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>7456</v>
+        <v>7400</v>
       </c>
       <c r="R10" t="n">
-        <v>103</v>
+        <v>101.49</v>
       </c>
     </row>
     <row r="11">
@@ -2981,10 +2981,10 @@
         <v>104.13</v>
       </c>
       <c r="Q11" t="n">
-        <v>7456</v>
+        <v>7400</v>
       </c>
       <c r="R11" t="n">
-        <v>103</v>
+        <v>101.49</v>
       </c>
     </row>
     <row r="12">
@@ -3049,10 +3049,10 @@
         <v>103.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>19250</v>
+        <v>19166</v>
       </c>
       <c r="R12" t="n">
-        <v>106.75</v>
+        <v>105.91</v>
       </c>
     </row>
     <row r="13">
@@ -3117,10 +3117,10 @@
         <v>103.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>19250</v>
+        <v>19166</v>
       </c>
       <c r="R13" t="n">
-        <v>106.75</v>
+        <v>105.91</v>
       </c>
     </row>
     <row r="14">
@@ -3185,10 +3185,10 @@
         <v>103.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>9370</v>
+        <v>9296</v>
       </c>
       <c r="R14" t="n">
-        <v>104.7</v>
+        <v>103.16</v>
       </c>
     </row>
     <row r="15">
@@ -3253,10 +3253,10 @@
         <v>103.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>11460</v>
+        <v>11206</v>
       </c>
       <c r="R15" t="n">
-        <v>107.16</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="16">
@@ -3321,10 +3321,10 @@
         <v>102.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>16766</v>
+        <v>16800</v>
       </c>
       <c r="R16" t="n">
-        <v>103.78</v>
+        <v>104.17</v>
       </c>
     </row>
     <row r="17">
@@ -3389,10 +3389,10 @@
         <v>103.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>1120</v>
+        <v>1081</v>
       </c>
       <c r="R17" t="n">
-        <v>82.20999999999999</v>
+        <v>74.28</v>
       </c>
     </row>
     <row r="18">
@@ -3457,10 +3457,10 @@
         <v>99.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2220</v>
+        <v>2196</v>
       </c>
       <c r="R18" t="n">
-        <v>104.73</v>
+        <v>102.66</v>
       </c>
     </row>
     <row r="19">
@@ -3525,10 +3525,10 @@
         <v>100.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>42733</v>
+        <v>42716</v>
       </c>
       <c r="R19" t="n">
-        <v>101.91</v>
+        <v>101.83</v>
       </c>
     </row>
     <row r="20">
@@ -3593,10 +3593,10 @@
         <v>103.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>25766</v>
+        <v>25550</v>
       </c>
       <c r="R20" t="n">
-        <v>99.55</v>
+        <v>97.84999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3661,10 +3661,10 @@
         <v>105.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>7527</v>
+        <v>7534</v>
       </c>
       <c r="R21" t="n">
-        <v>114.52</v>
+        <v>114.68</v>
       </c>
     </row>
     <row r="22">
@@ -3729,10 +3729,10 @@
         <v>101.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>7763</v>
+        <v>7810</v>
       </c>
       <c r="R22" t="n">
-        <v>105.75</v>
+        <v>106.91</v>
       </c>
     </row>
     <row r="23">
@@ -3797,10 +3797,10 @@
         <v>104.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>31333</v>
+        <v>30850</v>
       </c>
       <c r="R23" t="n">
-        <v>106.12</v>
+        <v>103.08</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_년도별.xlsx
+++ b/Data/관심주_년도별.xlsx
@@ -2437,10 +2437,10 @@
         <v>98.76000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>34850</v>
+        <v>35000</v>
       </c>
       <c r="R3" t="n">
-        <v>98.56999999999999</v>
+        <v>99.43000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -2505,10 +2505,10 @@
         <v>100.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2196</v>
+        <v>2208</v>
       </c>
       <c r="R4" t="n">
-        <v>102.66</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="5">
@@ -2641,10 +2641,10 @@
         <v>103.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>4745</v>
+        <v>4776</v>
       </c>
       <c r="R6" t="n">
-        <v>102.74</v>
+        <v>104.05</v>
       </c>
     </row>
     <row r="7">
@@ -2709,10 +2709,10 @@
         <v>103.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>4745</v>
+        <v>4776</v>
       </c>
       <c r="R7" t="n">
-        <v>102.74</v>
+        <v>104.05</v>
       </c>
     </row>
     <row r="8">
@@ -2777,10 +2777,10 @@
         <v>105.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>24850</v>
+        <v>24966</v>
       </c>
       <c r="R8" t="n">
-        <v>102.01</v>
+        <v>102.94</v>
       </c>
     </row>
     <row r="9">
@@ -2845,10 +2845,10 @@
         <v>105.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2566</v>
+        <v>2576</v>
       </c>
       <c r="R9" t="n">
-        <v>108.9</v>
+        <v>109.64</v>
       </c>
     </row>
     <row r="10">
@@ -2913,10 +2913,10 @@
         <v>104.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>7400</v>
+        <v>7410</v>
       </c>
       <c r="R10" t="n">
-        <v>101.49</v>
+        <v>101.75</v>
       </c>
     </row>
     <row r="11">
@@ -2981,10 +2981,10 @@
         <v>104.13</v>
       </c>
       <c r="Q11" t="n">
-        <v>7400</v>
+        <v>7410</v>
       </c>
       <c r="R11" t="n">
-        <v>101.49</v>
+        <v>101.75</v>
       </c>
     </row>
     <row r="12">
@@ -3049,10 +3049,10 @@
         <v>103.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>19166</v>
+        <v>19233</v>
       </c>
       <c r="R12" t="n">
-        <v>105.91</v>
+        <v>106.59</v>
       </c>
     </row>
     <row r="13">
@@ -3117,10 +3117,10 @@
         <v>103.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>19166</v>
+        <v>19233</v>
       </c>
       <c r="R13" t="n">
-        <v>105.91</v>
+        <v>106.59</v>
       </c>
     </row>
     <row r="14">
@@ -3185,10 +3185,10 @@
         <v>103.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>9296</v>
+        <v>9320</v>
       </c>
       <c r="R14" t="n">
-        <v>103.16</v>
+        <v>103.65</v>
       </c>
     </row>
     <row r="15">
@@ -3253,10 +3253,10 @@
         <v>103.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>11206</v>
+        <v>11303</v>
       </c>
       <c r="R15" t="n">
-        <v>102.8</v>
+        <v>104.48</v>
       </c>
     </row>
     <row r="16">
@@ -3321,10 +3321,10 @@
         <v>102.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>16800</v>
+        <v>16813</v>
       </c>
       <c r="R16" t="n">
-        <v>104.17</v>
+        <v>104.32</v>
       </c>
     </row>
     <row r="17">
@@ -3389,10 +3389,10 @@
         <v>103.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>1081</v>
+        <v>1103</v>
       </c>
       <c r="R17" t="n">
-        <v>74.28</v>
+        <v>78.92</v>
       </c>
     </row>
     <row r="18">
@@ -3457,10 +3457,10 @@
         <v>99.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2196</v>
+        <v>2208</v>
       </c>
       <c r="R18" t="n">
-        <v>102.66</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="19">
@@ -3661,10 +3661,10 @@
         <v>105.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>7534</v>
+        <v>7410</v>
       </c>
       <c r="R21" t="n">
-        <v>114.68</v>
+        <v>111.6</v>
       </c>
     </row>
     <row r="22">
@@ -3729,10 +3729,10 @@
         <v>101.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>7810</v>
+        <v>7923</v>
       </c>
       <c r="R22" t="n">
-        <v>106.91</v>
+        <v>109.68</v>
       </c>
     </row>
     <row r="23">
@@ -3797,10 +3797,10 @@
         <v>104.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>30850</v>
+        <v>30916</v>
       </c>
       <c r="R23" t="n">
-        <v>103.08</v>
+        <v>103.5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_년도별.xlsx
+++ b/Data/관심주_년도별.xlsx
@@ -2369,10 +2369,10 @@
         <v>98.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>11833</v>
+        <v>12063</v>
       </c>
       <c r="R2" t="n">
-        <v>101.41</v>
+        <v>105.19</v>
       </c>
     </row>
     <row r="3">
@@ -2437,10 +2437,10 @@
         <v>98.76000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>35000</v>
+        <v>34716</v>
       </c>
       <c r="R3" t="n">
-        <v>99.43000000000001</v>
+        <v>97.79000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -2505,10 +2505,10 @@
         <v>100.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2208</v>
+        <v>2216</v>
       </c>
       <c r="R4" t="n">
-        <v>103.7</v>
+        <v>104.44</v>
       </c>
     </row>
     <row r="5">
@@ -2573,10 +2573,10 @@
         <v>100.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>42716</v>
+        <v>44633</v>
       </c>
       <c r="R5" t="n">
-        <v>101.83</v>
+        <v>110.34</v>
       </c>
     </row>
     <row r="6">
@@ -2641,10 +2641,10 @@
         <v>103.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>4776</v>
+        <v>4590</v>
       </c>
       <c r="R6" t="n">
-        <v>104.05</v>
+        <v>96.08</v>
       </c>
     </row>
     <row r="7">
@@ -2709,10 +2709,10 @@
         <v>103.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>4776</v>
+        <v>4590</v>
       </c>
       <c r="R7" t="n">
-        <v>104.05</v>
+        <v>96.08</v>
       </c>
     </row>
     <row r="8">
@@ -2777,10 +2777,10 @@
         <v>105.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>24966</v>
+        <v>24933</v>
       </c>
       <c r="R8" t="n">
-        <v>102.94</v>
+        <v>102.67</v>
       </c>
     </row>
     <row r="9">
@@ -2845,10 +2845,10 @@
         <v>105.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2576</v>
+        <v>2605</v>
       </c>
       <c r="R9" t="n">
-        <v>109.64</v>
+        <v>111.71</v>
       </c>
     </row>
     <row r="10">
@@ -2913,10 +2913,10 @@
         <v>104.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>7410</v>
+        <v>7423</v>
       </c>
       <c r="R10" t="n">
-        <v>101.75</v>
+        <v>102.11</v>
       </c>
     </row>
     <row r="11">
@@ -2981,10 +2981,10 @@
         <v>104.13</v>
       </c>
       <c r="Q11" t="n">
-        <v>7410</v>
+        <v>7423</v>
       </c>
       <c r="R11" t="n">
-        <v>101.75</v>
+        <v>102.11</v>
       </c>
     </row>
     <row r="12">
@@ -3049,10 +3049,10 @@
         <v>103.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>19233</v>
+        <v>19083</v>
       </c>
       <c r="R12" t="n">
-        <v>106.59</v>
+        <v>105.07</v>
       </c>
     </row>
     <row r="13">
@@ -3117,10 +3117,10 @@
         <v>103.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>19233</v>
+        <v>19083</v>
       </c>
       <c r="R13" t="n">
-        <v>106.59</v>
+        <v>105.07</v>
       </c>
     </row>
     <row r="14">
@@ -3185,10 +3185,10 @@
         <v>103.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>9320</v>
+        <v>9350</v>
       </c>
       <c r="R14" t="n">
-        <v>103.65</v>
+        <v>104.28</v>
       </c>
     </row>
     <row r="15">
@@ -3253,10 +3253,10 @@
         <v>103.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>11303</v>
+        <v>11356</v>
       </c>
       <c r="R15" t="n">
-        <v>104.48</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="16">
@@ -3389,10 +3389,10 @@
         <v>103.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="R17" t="n">
-        <v>78.92</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="18">
@@ -3457,10 +3457,10 @@
         <v>99.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2208</v>
+        <v>2216</v>
       </c>
       <c r="R18" t="n">
-        <v>103.7</v>
+        <v>104.44</v>
       </c>
     </row>
     <row r="19">
@@ -3525,10 +3525,10 @@
         <v>100.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>42716</v>
+        <v>44633</v>
       </c>
       <c r="R19" t="n">
-        <v>101.83</v>
+        <v>110.34</v>
       </c>
     </row>
     <row r="20">
@@ -3593,10 +3593,10 @@
         <v>103.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>25550</v>
+        <v>25783</v>
       </c>
       <c r="R20" t="n">
-        <v>97.84999999999999</v>
+        <v>99.68000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3661,10 +3661,10 @@
         <v>105.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>7410</v>
+        <v>7290</v>
       </c>
       <c r="R21" t="n">
-        <v>111.6</v>
+        <v>108.49</v>
       </c>
     </row>
     <row r="22">
@@ -3729,10 +3729,10 @@
         <v>101.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>7923</v>
+        <v>8026</v>
       </c>
       <c r="R22" t="n">
-        <v>109.68</v>
+        <v>112.13</v>
       </c>
     </row>
     <row r="23">
@@ -3797,10 +3797,10 @@
         <v>104.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>30916</v>
+        <v>30616</v>
       </c>
       <c r="R23" t="n">
-        <v>103.5</v>
+        <v>101.58</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_년도별.xlsx
+++ b/Data/관심주_년도별.xlsx
@@ -2369,10 +2369,10 @@
         <v>98.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>12063</v>
+        <v>11950</v>
       </c>
       <c r="R2" t="n">
-        <v>105.19</v>
+        <v>103.35</v>
       </c>
     </row>
     <row r="3">
@@ -2437,10 +2437,10 @@
         <v>98.76000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>34716</v>
+        <v>34183</v>
       </c>
       <c r="R3" t="n">
-        <v>97.79000000000001</v>
+        <v>94.64</v>
       </c>
     </row>
     <row r="4">
@@ -2505,10 +2505,10 @@
         <v>100.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2216</v>
+        <v>2183</v>
       </c>
       <c r="R4" t="n">
-        <v>104.44</v>
+        <v>101.45</v>
       </c>
     </row>
     <row r="5">
@@ -2573,10 +2573,10 @@
         <v>100.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>44633</v>
+        <v>43316</v>
       </c>
       <c r="R5" t="n">
-        <v>110.34</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="6">
@@ -2641,10 +2641,10 @@
         <v>103.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>4590</v>
+        <v>4538</v>
       </c>
       <c r="R6" t="n">
-        <v>96.08</v>
+        <v>93.76000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2709,10 +2709,10 @@
         <v>103.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>4590</v>
+        <v>4538</v>
       </c>
       <c r="R7" t="n">
-        <v>96.08</v>
+        <v>93.76000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -2777,10 +2777,10 @@
         <v>105.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>24933</v>
+        <v>24983</v>
       </c>
       <c r="R8" t="n">
-        <v>102.67</v>
+        <v>103.07</v>
       </c>
     </row>
     <row r="9">
@@ -2845,10 +2845,10 @@
         <v>105.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2605</v>
+        <v>2615</v>
       </c>
       <c r="R9" t="n">
-        <v>111.71</v>
+        <v>112.43</v>
       </c>
     </row>
     <row r="10">
@@ -2913,10 +2913,10 @@
         <v>104.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>7423</v>
+        <v>7363</v>
       </c>
       <c r="R10" t="n">
-        <v>102.11</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="11">
@@ -2981,10 +2981,10 @@
         <v>104.13</v>
       </c>
       <c r="Q11" t="n">
-        <v>7423</v>
+        <v>7363</v>
       </c>
       <c r="R11" t="n">
-        <v>102.11</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="12">
@@ -3049,10 +3049,10 @@
         <v>103.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>19083</v>
+        <v>18843</v>
       </c>
       <c r="R12" t="n">
-        <v>105.07</v>
+        <v>102.58</v>
       </c>
     </row>
     <row r="13">
@@ -3117,10 +3117,10 @@
         <v>103.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>19083</v>
+        <v>18843</v>
       </c>
       <c r="R13" t="n">
-        <v>105.07</v>
+        <v>102.58</v>
       </c>
     </row>
     <row r="14">
@@ -3185,10 +3185,10 @@
         <v>103.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>9350</v>
+        <v>9290</v>
       </c>
       <c r="R14" t="n">
-        <v>104.28</v>
+        <v>103.01</v>
       </c>
     </row>
     <row r="15">
@@ -3321,10 +3321,10 @@
         <v>102.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>16813</v>
+        <v>16670</v>
       </c>
       <c r="R16" t="n">
-        <v>104.32</v>
+        <v>102.64</v>
       </c>
     </row>
     <row r="17">
@@ -3389,10 +3389,10 @@
         <v>103.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="R17" t="n">
-        <v>77.3</v>
+        <v>76.08</v>
       </c>
     </row>
     <row r="18">
@@ -3457,10 +3457,10 @@
         <v>99.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2216</v>
+        <v>2183</v>
       </c>
       <c r="R18" t="n">
-        <v>104.44</v>
+        <v>101.45</v>
       </c>
     </row>
     <row r="19">
@@ -3525,10 +3525,10 @@
         <v>100.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>44633</v>
+        <v>43316</v>
       </c>
       <c r="R19" t="n">
-        <v>110.34</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="20">
@@ -3593,10 +3593,10 @@
         <v>103.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>25783</v>
+        <v>25633</v>
       </c>
       <c r="R20" t="n">
-        <v>99.68000000000001</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="21">
@@ -3661,10 +3661,10 @@
         <v>105.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>7290</v>
+        <v>7210</v>
       </c>
       <c r="R21" t="n">
-        <v>108.49</v>
+        <v>106.37</v>
       </c>
     </row>
     <row r="22">
@@ -3729,10 +3729,10 @@
         <v>101.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>8026</v>
+        <v>7986</v>
       </c>
       <c r="R22" t="n">
-        <v>112.13</v>
+        <v>111.19</v>
       </c>
     </row>
     <row r="23">
@@ -3797,10 +3797,10 @@
         <v>104.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>30616</v>
+        <v>30666</v>
       </c>
       <c r="R23" t="n">
-        <v>101.58</v>
+        <v>101.9</v>
       </c>
     </row>
   </sheetData>
